--- a/図書貸出データベース/図書貸出データベースの設計.xlsx
+++ b/図書貸出データベース/図書貸出データベースの設計.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
   <si>
     <t xml:space="preserve">第１正規形</t>
   </si>
@@ -253,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,10 +314,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,7 +334,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,7 +590,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1183,9 +1179,7 @@
     </row>
     <row r="27" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
-      <c r="B27" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="11" t="s">
         <v>2</v>
       </c>
@@ -1204,9 +1198,7 @@
     </row>
     <row r="28" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
-      <c r="B28" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="11" t="n">
         <v>1</v>
       </c>
@@ -1225,9 +1217,7 @@
     </row>
     <row r="29" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
-      <c r="B29" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="11" t="n">
         <v>1</v>
       </c>
@@ -1246,9 +1236,7 @@
     </row>
     <row r="30" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
-      <c r="B30" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="11" t="n">
         <v>2</v>
       </c>
@@ -1267,9 +1255,7 @@
     </row>
     <row r="31" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
-      <c r="B31" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="11" t="n">
         <v>3</v>
       </c>
@@ -1288,9 +1274,7 @@
     </row>
     <row r="32" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
-      <c r="B32" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="11" t="n">
         <v>3</v>
       </c>
@@ -1309,9 +1293,7 @@
     </row>
     <row r="33" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="B33" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="11" t="n">
         <v>4</v>
       </c>
@@ -1344,386 +1326,372 @@
       <c r="M34" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17" t="n">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="18" t="n">
+      <c r="C38" s="17" t="n">
         <v>123456</v>
       </c>
-      <c r="D38" s="19" t="n">
+      <c r="D38" s="18" t="n">
         <v>45565</v>
       </c>
-      <c r="E38" s="19" t="n">
+      <c r="E38" s="18" t="n">
         <v>45580</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17" t="n">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C39" s="18" t="n">
+      <c r="C39" s="17" t="n">
         <v>123456</v>
       </c>
-      <c r="D39" s="19" t="n">
+      <c r="D39" s="18" t="n">
         <v>45553</v>
       </c>
-      <c r="E39" s="19" t="n">
+      <c r="E39" s="18" t="n">
         <v>45567</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="n">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="C40" s="18" t="n">
+      <c r="C40" s="17" t="n">
         <v>123457</v>
       </c>
-      <c r="D40" s="19" t="n">
+      <c r="D40" s="18" t="n">
         <v>45565</v>
       </c>
-      <c r="E40" s="19" t="n">
+      <c r="E40" s="18" t="n">
         <v>45580</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17" t="n">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="C41" s="18" t="n">
+      <c r="C41" s="17" t="n">
         <v>123458</v>
       </c>
-      <c r="D41" s="19" t="n">
+      <c r="D41" s="18" t="n">
         <v>45538</v>
       </c>
-      <c r="E41" s="19" t="n">
+      <c r="E41" s="18" t="n">
         <v>45552</v>
       </c>
-      <c r="F41" s="16"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16"/>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16"/>
-      <c r="B52" s="21" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="D53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16"/>
-      <c r="B53" s="21" t="n">
+      <c r="D55" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="17" t="n">
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16"/>
-      <c r="B55" s="21" t="n">
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15"/>
+      <c r="B60" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16"/>
-      <c r="B56" s="21" t="n">
+      <c r="C60" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16"/>
-      <c r="B57" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C57" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
-      <c r="B58" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C58" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16"/>
-      <c r="B60" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
-      <c r="B61" s="18" t="n">
+      <c r="A61" s="15"/>
+      <c r="B61" s="17" t="n">
         <v>123456</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16"/>
-      <c r="B62" s="18" t="n">
+      <c r="A62" s="15"/>
+      <c r="B62" s="17" t="n">
         <v>123457</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
-      <c r="B63" s="18" t="n">
+      <c r="A63" s="15"/>
+      <c r="B63" s="17" t="n">
         <v>123458</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
